--- a/Work Logs.xlsx
+++ b/Work Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61431\Aginic\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD683CE-FC32-472B-B3A6-B389998F71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF101963-5016-44F8-8DF1-C13321971D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{9D1761D1-7C9D-47A2-921F-BF0229EDE82B}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">Programming - Created bash script to consolidate execution of all the scripts simultaniously. </t>
   </si>
   <si>
-    <t>Wrapping up - Created Readme file with instructions to execute the scripts and uploaded the project to github respository</t>
+    <t>Wrapping up - Created Readme file with instructions to execute the scripts, created a report for the task and uploaded the project to github respository</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
         <v>44517</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
